--- a/image analysis examples/E21A40X/res.xlsx
+++ b/image analysis examples/E21A40X/res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>dendrite id</t>
   </si>
@@ -46,370 +46,277 @@
     <t>distance to parallel [μm]</t>
   </si>
   <si>
-    <t>(x: 0, y: 135)</t>
-  </si>
-  <si>
-    <t>(x: 112, y: 119)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15.4</t>
-  </si>
-  <si>
-    <t>(x: 1, y: 158)</t>
+    <t>(x: 0, y: 145)</t>
+  </si>
+  <si>
+    <t>(x: 141, y: 151)</t>
+  </si>
+  <si>
+    <t>(x: 0, y: 87)</t>
+  </si>
+  <si>
+    <t>(x: 89, y: 101)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>22.21</t>
+  </si>
+  <si>
+    <t>(x: 0, y: 159)</t>
   </si>
   <si>
     <t>(x: 53, y: 106)</t>
   </si>
   <si>
-    <t>9 , 17</t>
-  </si>
-  <si>
-    <t>55.86143571373726 , 143.33875958721003</t>
-  </si>
-  <si>
-    <t>(x: 2, y: 142)</t>
-  </si>
-  <si>
-    <t>(x: 98, y: 149)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10.36</t>
-  </si>
-  <si>
-    <t>(x: 4, y: 20)</t>
-  </si>
-  <si>
-    <t>(x: 61, y: 68)</t>
-  </si>
-  <si>
-    <t>16 , 8 , 15</t>
-  </si>
-  <si>
-    <t>25.64 , 9.8 , 19.16</t>
-  </si>
-  <si>
-    <t>(x: 24, y: 78)</t>
-  </si>
-  <si>
-    <t>(x: 214, y: 100)</t>
-  </si>
-  <si>
-    <t>3 , 14</t>
-  </si>
-  <si>
-    <t>10.36 , 3.08</t>
-  </si>
-  <si>
-    <t>(x: 63, y: 167)</t>
-  </si>
-  <si>
-    <t>(x: 141, y: 213)</t>
-  </si>
-  <si>
-    <t>(x: 72, y: 84)</t>
-  </si>
-  <si>
-    <t>(x: 198, y: 247)</t>
-  </si>
-  <si>
-    <t>19 , 33 , 31</t>
-  </si>
-  <si>
-    <t>9.94 , 2.82 , 5.45</t>
-  </si>
-  <si>
-    <t>(x: 78, y: 2)</t>
-  </si>
-  <si>
-    <t>(x: 141, y: 65)</t>
-  </si>
-  <si>
-    <t>4 , 15 , 19 , 33</t>
-  </si>
-  <si>
-    <t>9.8 , 42.5205832509386 , 0.12 , 22.39</t>
-  </si>
-  <si>
-    <t>(x: 88, y: 150)</t>
-  </si>
-  <si>
-    <t>(x: 181, y: 57)</t>
-  </si>
-  <si>
-    <t>2 , 17</t>
-  </si>
-  <si>
-    <t>55.86143571373726 , 67.17514421272202</t>
-  </si>
-  <si>
-    <t>(x: 100, y: 80)</t>
-  </si>
-  <si>
-    <t>(x: 153, y: 57)</t>
-  </si>
-  <si>
-    <t>(x: 125, y: 54)</t>
-  </si>
-  <si>
-    <t>(x: 254, y: 84)</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1.18</t>
+    <t>(x: 28, y: 133)</t>
+  </si>
+  <si>
+    <t>(x: 186, y: 117)</t>
+  </si>
+  <si>
+    <t>(x: 34, y: 227)</t>
+  </si>
+  <si>
+    <t>(x: 167, y: 250)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>(x: 65, y: 177)</t>
+  </si>
+  <si>
+    <t>(x: 183, y: 215)</t>
+  </si>
+  <si>
+    <t>11 , 10</t>
+  </si>
+  <si>
+    <t>22.35 , 24.51</t>
+  </si>
+  <si>
+    <t>(x: 66, y: 109)</t>
+  </si>
+  <si>
+    <t>(x: 199, y: 9)</t>
+  </si>
+  <si>
+    <t>(x: 77, y: 88)</t>
+  </si>
+  <si>
+    <t>(x: 200, y: 250)</t>
+  </si>
+  <si>
+    <t>24 , 21 , 26</t>
+  </si>
+  <si>
+    <t>18.82 , 13.51 , 3.11</t>
+  </si>
+  <si>
+    <t>(x: 103, y: 126)</t>
+  </si>
+  <si>
+    <t>(x: 165, y: 107)</t>
+  </si>
+  <si>
+    <t>(x: 109, y: 37)</t>
+  </si>
+  <si>
+    <t>(x: 255, y: 84)</t>
+  </si>
+  <si>
+    <t>11 , 6</t>
+  </si>
+  <si>
+    <t>2.12 , 24.51</t>
+  </si>
+  <si>
+    <t>(x: 129, y: 57)</t>
+  </si>
+  <si>
+    <t>(x: 254, y: 97)</t>
+  </si>
+  <si>
+    <t>10 , 6</t>
+  </si>
+  <si>
+    <t>2.12 , 22.35</t>
+  </si>
+  <si>
+    <t>(x: 132, y: 167)</t>
+  </si>
+  <si>
+    <t>(x: 197, y: 232)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17.05</t>
+  </si>
+  <si>
+    <t>(x: 132, y: 156)</t>
+  </si>
+  <si>
+    <t>(x: 253, y: 215)</t>
+  </si>
+  <si>
+    <t>(x: 179, y: 167)</t>
+  </si>
+  <si>
+    <t>(x: 248, y: 223)</t>
+  </si>
+  <si>
+    <t>(x: 192, y: 99)</t>
+  </si>
+  <si>
+    <t>(x: 255, y: 86)</t>
+  </si>
+  <si>
+    <t>(x: 82, y: 6)</t>
+  </si>
+  <si>
+    <t>(x: 136, y: 65)</t>
+  </si>
+  <si>
+    <t>12 , 24</t>
+  </si>
+  <si>
+    <t>17.05 , 29.38</t>
+  </si>
+  <si>
+    <t>(x: 97, y: 42)</t>
   </si>
   <si>
     <t>(x: 126, y: 254)</t>
   </si>
   <si>
-    <t>(x: 254, y: 167)</t>
-  </si>
-  <si>
-    <t>(x: 127, y: 210)</t>
-  </si>
-  <si>
-    <t>(x: 209, y: 202)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>(x: 147, y: 69)</t>
-  </si>
-  <si>
-    <t>(x: 210, y: 81)</t>
-  </si>
-  <si>
-    <t>5 , 11</t>
-  </si>
-  <si>
-    <t>3.08 , 1.18</t>
-  </si>
-  <si>
-    <t>(x: 173, y: 93)</t>
-  </si>
-  <si>
-    <t>(x: 226, y: 146)</t>
-  </si>
-  <si>
-    <t>4 , 8 , 19 , 33</t>
-  </si>
-  <si>
-    <t>19.16 , 42.5205832509386 , 8.92 , 16.89</t>
-  </si>
-  <si>
-    <t>(x: 180, y: 165)</t>
-  </si>
-  <si>
-    <t>(x: 248, y: 220)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>25.64</t>
-  </si>
-  <si>
-    <t>(x: 192, y: 141)</t>
-  </si>
-  <si>
-    <t>(x: 255, y: 78)</t>
-  </si>
-  <si>
-    <t>2 , 9</t>
-  </si>
-  <si>
-    <t>143.33875958721003 , 67.17514421272202</t>
-  </si>
-  <si>
-    <t>(x: 88, y: 0)</t>
-  </si>
-  <si>
-    <t>(x: 99, y: 50)</t>
-  </si>
-  <si>
-    <t>24 , 25 , 21</t>
-  </si>
-  <si>
-    <t>11.29 , 22.24 , 18.22</t>
-  </si>
-  <si>
-    <t>(x: 77, y: 2)</t>
-  </si>
-  <si>
-    <t>(x: 131, y: 60)</t>
-  </si>
-  <si>
-    <t>8 , 15 , 33 , 7</t>
-  </si>
-  <si>
-    <t>0.12 , 8.92 , 23.23 , 9.94</t>
-  </si>
-  <si>
-    <t>(x: 86, y: 19)</t>
-  </si>
-  <si>
-    <t>(x: 199, y: 254)</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>19.61</t>
-  </si>
-  <si>
-    <t>(x: 208, y: 55)</t>
-  </si>
-  <si>
-    <t>(x: 217, y: 114)</t>
-  </si>
-  <si>
-    <t>25 , 18</t>
-  </si>
-  <si>
-    <t>2.09 , 18.22</t>
-  </si>
-  <si>
-    <t>(x: 237, y: 15)</t>
-  </si>
-  <si>
-    <t>(x: 218, y: 68)</t>
-  </si>
-  <si>
-    <t>27 , 30</t>
-  </si>
-  <si>
-    <t>2.94 , 25.16</t>
-  </si>
-  <si>
-    <t>(x: 202, y: 30)</t>
-  </si>
-  <si>
-    <t>(x: 151, y: 92)</t>
-  </si>
-  <si>
-    <t>(x: 46, y: 92)</t>
-  </si>
-  <si>
-    <t>(x: 71, y: 190)</t>
-  </si>
-  <si>
-    <t>29.03 , 11.29</t>
-  </si>
-  <si>
-    <t>(x: 226, y: 90)</t>
-  </si>
-  <si>
-    <t>(x: 247, y: 179)</t>
-  </si>
-  <si>
-    <t>24 , 18 , 21</t>
-  </si>
-  <si>
-    <t>29.03 , 22.24 , 2.09</t>
-  </si>
-  <si>
-    <t>(x: 209, y: 50)</t>
-  </si>
-  <si>
-    <t>(x: 190, y: 235)</t>
-  </si>
-  <si>
-    <t>28 , 32</t>
-  </si>
-  <si>
-    <t>29.6 , 2.97</t>
-  </si>
-  <si>
-    <t>(x: 203, y: 57)</t>
-  </si>
-  <si>
-    <t>(x: 156, y: 206)</t>
-  </si>
-  <si>
-    <t>30 , 22</t>
-  </si>
-  <si>
-    <t>12.28 , 2.94</t>
-  </si>
-  <si>
-    <t>(x: 19, y: 114)</t>
-  </si>
-  <si>
-    <t>(x: 13, y: 226)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>29.6</t>
-  </si>
-  <si>
-    <t>(x: 24, y: 161)</t>
-  </si>
-  <si>
-    <t>(x: 47, y: 211)</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>(x: 95, y: 155)</t>
-  </si>
-  <si>
-    <t>(x: 62, y: 255)</t>
-  </si>
-  <si>
-    <t>27 , 22</t>
-  </si>
-  <si>
-    <t>12.28 , 25.16</t>
-  </si>
-  <si>
-    <t>(x: 115, y: 193)</t>
-  </si>
-  <si>
-    <t>(x: 154, y: 247)</t>
-  </si>
-  <si>
-    <t>33 , 7</t>
-  </si>
-  <si>
-    <t>2.26 , 5.45</t>
-  </si>
-  <si>
-    <t>(x: 178, y: 178)</t>
-  </si>
-  <si>
-    <t>(x: 164, y: 253)</t>
-  </si>
-  <si>
-    <t>2.97</t>
-  </si>
-  <si>
-    <t>(x: 136, y: 199)</t>
-  </si>
-  <si>
-    <t>(x: 179, y: 250)</t>
-  </si>
-  <si>
-    <t>8 , 15 , 19 , 7 , 31</t>
-  </si>
-  <si>
-    <t>22.39 , 16.89 , 23.23 , 2.82 , 2.26</t>
-  </si>
-  <si>
-    <t>(x: 127, y: 137)</t>
-  </si>
-  <si>
-    <t>(x: 84, y: 206)</t>
+    <t>20 , 19</t>
+  </si>
+  <si>
+    <t>8.01 , 18.0</t>
+  </si>
+  <si>
+    <t>(x: 225, y: 3)</t>
+  </si>
+  <si>
+    <t>(x: 203, y: 255)</t>
+  </si>
+  <si>
+    <t>(x: 208, y: 58)</t>
+  </si>
+  <si>
+    <t>(x: 216, y: 114)</t>
+  </si>
+  <si>
+    <t>27 , 20 , 17</t>
+  </si>
+  <si>
+    <t>18.22 , 26.59 , 18.0</t>
+  </si>
+  <si>
+    <t>(x: 50, y: 96)</t>
+  </si>
+  <si>
+    <t>(x: 69, y: 191)</t>
+  </si>
+  <si>
+    <t>27 , 19 , 17</t>
+  </si>
+  <si>
+    <t>10.89 , 26.59 , 8.01</t>
+  </si>
+  <si>
+    <t>(x: 205, y: 120)</t>
+  </si>
+  <si>
+    <t>(x: 253, y: 186)</t>
+  </si>
+  <si>
+    <t>24 , 8 , 26</t>
+  </si>
+  <si>
+    <t>32.56 , 13.51 , 16.88</t>
+  </si>
+  <si>
+    <t>(x: 217, y: 69)</t>
+  </si>
+  <si>
+    <t>(x: 164, y: 143)</t>
+  </si>
+  <si>
+    <t>(x: 12, y: 170)</t>
+  </si>
+  <si>
+    <t>(x: 14, y: 253)</t>
+  </si>
+  <si>
+    <t>(x: 0, y: 177)</t>
+  </si>
+  <si>
+    <t>(x: 57, y: 248)</t>
+  </si>
+  <si>
+    <t>16 , 8 , 21 , 26</t>
+  </si>
+  <si>
+    <t>29.38 , 18.82 , 32.56 , 15.63</t>
+  </si>
+  <si>
+    <t>(x: 113, y: 104)</t>
+  </si>
+  <si>
+    <t>(x: 58, y: 252)</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>(x: 128, y: 186)</t>
+  </si>
+  <si>
+    <t>(x: 165, y: 240)</t>
+  </si>
+  <si>
+    <t>24 , 8 , 21</t>
+  </si>
+  <si>
+    <t>15.63 , 3.11 , 16.88</t>
+  </si>
+  <si>
+    <t>(x: 134, y: 186)</t>
+  </si>
+  <si>
+    <t>(x: 150, y: 255)</t>
+  </si>
+  <si>
+    <t>10.89 , 18.22</t>
+  </si>
+  <si>
+    <t>(x: 113, y: 152)</t>
+  </si>
+  <si>
+    <t>(x: 97, y: 209)</t>
+  </si>
+  <si>
+    <t>29 , 25</t>
+  </si>
+  <si>
+    <t>11.86 , 2.79</t>
+  </si>
+  <si>
+    <t>(x: 185, y: 155)</t>
+  </si>
+  <si>
+    <t>(x: 164, y: 252)</t>
+  </si>
+  <si>
+    <t>11.86</t>
   </si>
 </sst>
 </file>
@@ -741,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18.89</v>
+        <v>23.57</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -793,22 +700,16 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>171.87</v>
+        <v>2.44</v>
       </c>
       <c r="F2">
-        <v>166.58</v>
+        <v>-2.56</v>
       </c>
       <c r="G2">
-        <v>177.16</v>
+        <v>7.44</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -816,31 +717,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.28</v>
+        <v>15.05</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>8.94</v>
+      </c>
+      <c r="F3">
+        <v>3.94</v>
+      </c>
+      <c r="G3">
+        <v>13.94</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3">
-        <v>135</v>
-      </c>
-      <c r="F3">
-        <v>129.71</v>
-      </c>
-      <c r="G3">
-        <v>140.29</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -848,31 +749,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>16.07</v>
+        <v>12.52</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>4.17</v>
+        <v>135</v>
       </c>
       <c r="F4">
-        <v>-1.12</v>
+        <v>130</v>
       </c>
       <c r="G4">
-        <v>9.460000000000001</v>
+        <v>140</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -880,31 +775,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12.44</v>
+        <v>26.52</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>40.1</v>
+        <v>174.22</v>
       </c>
       <c r="F5">
-        <v>34.81</v>
+        <v>169.22</v>
       </c>
       <c r="G5">
-        <v>45.39</v>
+        <v>179.22</v>
       </c>
       <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -912,31 +801,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>31.94</v>
+        <v>22.54</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>6.6</v>
+        <v>9.81</v>
       </c>
       <c r="F6">
-        <v>1.31</v>
+        <v>4.81</v>
       </c>
       <c r="G6">
-        <v>11.89</v>
+        <v>14.81</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -944,25 +833,31 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15.12</v>
+        <v>20.7</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>30.53</v>
+        <v>17.85</v>
       </c>
       <c r="F7">
-        <v>25.24</v>
+        <v>12.85</v>
       </c>
       <c r="G7">
-        <v>35.82</v>
+        <v>22.85</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -970,31 +865,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>34.41</v>
+        <v>27.79</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>52.3</v>
+        <v>143.06</v>
       </c>
       <c r="F8">
-        <v>47.01</v>
+        <v>138.06</v>
       </c>
       <c r="G8">
-        <v>57.59</v>
+        <v>148.06</v>
       </c>
       <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1002,31 +891,31 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>14.88</v>
+        <v>33.97</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>52.79</v>
       </c>
       <c r="F9">
-        <v>39.71</v>
+        <v>47.79</v>
       </c>
       <c r="G9">
-        <v>50.29</v>
+        <v>57.79</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1034,31 +923,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>21.96</v>
+        <v>10.83</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E10">
-        <v>135</v>
+        <v>162.96</v>
       </c>
       <c r="F10">
-        <v>129.71</v>
+        <v>157.96</v>
       </c>
       <c r="G10">
-        <v>140.29</v>
+        <v>167.96</v>
       </c>
       <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1066,25 +949,31 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.65</v>
+        <v>25.61</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>156.54</v>
+        <v>17.84</v>
       </c>
       <c r="F11">
-        <v>151.25</v>
+        <v>12.84</v>
       </c>
       <c r="G11">
-        <v>161.83</v>
+        <v>22.84</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1092,31 +981,31 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>22.12</v>
+        <v>21.92</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>13.09</v>
+        <v>17.74</v>
       </c>
       <c r="F12">
-        <v>7.8</v>
+        <v>12.74</v>
       </c>
       <c r="G12">
-        <v>18.38</v>
+        <v>22.74</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1124,25 +1013,31 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>25.85</v>
+        <v>15.35</v>
       </c>
       <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13">
-        <v>145.8</v>
-      </c>
-      <c r="F13">
-        <v>140.51</v>
-      </c>
-      <c r="G13">
-        <v>151.09</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1150,31 +1045,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>13.76</v>
+        <v>22.48</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14">
-        <v>174.43</v>
+        <v>25.99</v>
       </c>
       <c r="F14">
-        <v>169.14</v>
+        <v>20.99</v>
       </c>
       <c r="G14">
-        <v>179.72</v>
+        <v>30.99</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1182,31 +1071,25 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10.71</v>
+        <v>14.84</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>10.78</v>
+        <v>39.06</v>
       </c>
       <c r="F15">
-        <v>5.49</v>
+        <v>34.06</v>
       </c>
       <c r="G15">
-        <v>16.07</v>
+        <v>44.06</v>
       </c>
       <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1214,31 +1097,25 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>12.52</v>
+        <v>10.74</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E16">
-        <v>45</v>
+        <v>168.34</v>
       </c>
       <c r="F16">
-        <v>39.71</v>
+        <v>163.34</v>
       </c>
       <c r="G16">
-        <v>50.29</v>
+        <v>173.34</v>
       </c>
       <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1246,31 +1123,31 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>14.61</v>
+        <v>13.36</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E17">
-        <v>38.97</v>
+        <v>47.53</v>
       </c>
       <c r="F17">
-        <v>33.68</v>
+        <v>42.53</v>
       </c>
       <c r="G17">
-        <v>44.26</v>
+        <v>52.53</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1278,31 +1155,31 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14.88</v>
+        <v>35.73</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>135</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="F18">
-        <v>129.71</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="G18">
-        <v>140.29</v>
+        <v>87.20999999999999</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1310,31 +1187,25 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8.550000000000001</v>
+        <v>42.24</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E19">
-        <v>77.59</v>
+        <v>94.98999999999999</v>
       </c>
       <c r="F19">
-        <v>72.3</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="G19">
-        <v>82.88</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1342,31 +1213,31 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>13.23</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E20">
-        <v>47.05</v>
+        <v>81.87</v>
       </c>
       <c r="F20">
-        <v>41.76</v>
+        <v>76.87</v>
       </c>
       <c r="G20">
-        <v>52.34</v>
+        <v>86.87</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1374,31 +1245,31 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>43.55</v>
+        <v>16.18</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E21">
-        <v>64.31999999999999</v>
+        <v>78.69</v>
       </c>
       <c r="F21">
-        <v>59.03</v>
+        <v>73.69</v>
       </c>
       <c r="G21">
-        <v>69.61</v>
+        <v>83.69</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1406,31 +1277,31 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>9.970000000000001</v>
+        <v>13.63</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E22">
-        <v>81.33</v>
+        <v>53.97</v>
       </c>
       <c r="F22">
-        <v>76.04000000000001</v>
+        <v>48.97</v>
       </c>
       <c r="G22">
-        <v>86.62</v>
+        <v>58.97</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1438,31 +1309,25 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9.4</v>
+        <v>15.2</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E23">
-        <v>109.72</v>
+        <v>125.61</v>
       </c>
       <c r="F23">
-        <v>104.43</v>
+        <v>120.61</v>
       </c>
       <c r="G23">
-        <v>115.01</v>
+        <v>130.61</v>
       </c>
       <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1470,22 +1335,22 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>13.41</v>
+        <v>13.87</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E24">
-        <v>129.44</v>
+        <v>88.62</v>
       </c>
       <c r="F24">
-        <v>124.15</v>
+        <v>83.62</v>
       </c>
       <c r="G24">
-        <v>134.73</v>
+        <v>93.62</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1496,31 +1361,31 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>16.89</v>
+        <v>15.21</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E25">
-        <v>75.69</v>
+        <v>51.24</v>
       </c>
       <c r="F25">
-        <v>70.40000000000001</v>
+        <v>46.24</v>
       </c>
       <c r="G25">
-        <v>80.98</v>
+        <v>56.24</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1528,31 +1393,31 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>15.27</v>
+        <v>26.37</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E26">
-        <v>76.72</v>
+        <v>110.39</v>
       </c>
       <c r="F26">
-        <v>71.43000000000001</v>
+        <v>105.39</v>
       </c>
       <c r="G26">
-        <v>82.01000000000001</v>
+        <v>115.39</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1560,31 +1425,31 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>31.06</v>
+        <v>10.93</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E27">
-        <v>95.86</v>
+        <v>55.58</v>
       </c>
       <c r="F27">
-        <v>90.56999999999999</v>
+        <v>50.58</v>
       </c>
       <c r="G27">
-        <v>101.15</v>
+        <v>60.58</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1592,31 +1457,31 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>26.09</v>
+        <v>11.83</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E28">
-        <v>107.51</v>
+        <v>76.94</v>
       </c>
       <c r="F28">
-        <v>102.22</v>
+        <v>71.94</v>
       </c>
       <c r="G28">
-        <v>112.8</v>
+        <v>81.94</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J28" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1624,31 +1489,31 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>18.73</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E29">
-        <v>93.06999999999999</v>
+        <v>105.68</v>
       </c>
       <c r="F29">
-        <v>87.78</v>
+        <v>100.68</v>
       </c>
       <c r="G29">
-        <v>98.36</v>
+        <v>110.68</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J29" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1656,185 +1521,31 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>9.19</v>
+        <v>16.57</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E30">
-        <v>65.3</v>
+        <v>102.22</v>
       </c>
       <c r="F30">
-        <v>60.01</v>
+        <v>97.22</v>
       </c>
       <c r="G30">
-        <v>70.59</v>
+        <v>107.22</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>17.59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31">
-        <v>108.26</v>
-      </c>
-      <c r="F31">
-        <v>102.97</v>
-      </c>
-      <c r="G31">
-        <v>113.55</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>117</v>
-      </c>
-      <c r="J31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>11.12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32">
-        <v>54.16</v>
-      </c>
-      <c r="F32">
-        <v>48.87</v>
-      </c>
-      <c r="G32">
-        <v>59.45</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>12.74</v>
-      </c>
-      <c r="C33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33">
-        <v>100.57</v>
-      </c>
-      <c r="F33">
-        <v>95.28</v>
-      </c>
-      <c r="G33">
-        <v>105.86</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>11.14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34">
-        <v>49.86</v>
-      </c>
-      <c r="F34">
-        <v>44.57</v>
-      </c>
-      <c r="G34">
-        <v>55.15</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-      <c r="I34" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>13.58</v>
-      </c>
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35">
-        <v>121.93</v>
-      </c>
-      <c r="F35">
-        <v>116.64</v>
-      </c>
-      <c r="G35">
-        <v>127.22</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
